--- a/Mod_Korean/Lang/KR/Game/Element.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Element.xlsx
@@ -3147,7 +3147,7 @@
     <t>怪我を自然に治癒する。</t>
   </si>
   <si>
-    <t>그것은 신진대사를 빠르게 한다.</t>
+    <t>그것은 자연적인 회복을 더 빠르게 한다.</t>
   </si>
   <si>
     <t>It enhances your body metabolism.</t>
@@ -17014,9 +17014,15 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="16.0"/>
-    <col customWidth="1" min="6" max="6" width="40.86"/>
-    <col customWidth="1" min="7" max="32" width="16.0"/>
+    <col customWidth="1" min="1" max="3" width="16.0"/>
+    <col customWidth="1" min="4" max="4" width="7.57"/>
+    <col customWidth="1" min="5" max="5" width="13.0"/>
+    <col customWidth="1" min="6" max="6" width="14.71"/>
+    <col customWidth="1" min="7" max="9" width="16.0"/>
+    <col customWidth="1" min="10" max="10" width="4.43"/>
+    <col customWidth="1" min="11" max="11" width="5.71"/>
+    <col customWidth="1" min="12" max="12" width="38.43"/>
+    <col customWidth="1" min="13" max="32" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20811,7 +20817,7 @@
       <c r="H126" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="L126" s="1" t="s">
+      <c r="L126" s="3" t="s">
         <v>1043</v>
       </c>
       <c r="M126" s="1" t="s">

--- a/Mod_Korean/Lang/KR/Game/Element.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Element.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8810" uniqueCount="5433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8809" uniqueCount="5433">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">Void</t>
@@ -12023,7 +12023,7 @@
     <t xml:space="preserve">Beta 22.9</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.23</t>
@@ -25569,7 +25569,7 @@
         <v>1125</v>
       </c>
       <c r="B196" t="s">
-        <v>33</v>
+        <v>3906</v>
       </c>
       <c r="C196" t="s">
         <v>4139</v>

--- a/Mod_Korean/Lang/KR/Game/Element.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Element.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8809" uniqueCount="5433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8810" uniqueCount="5433">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">Void</t>
@@ -5152,7 +5152,7 @@
     <t xml:space="preserve">使徒</t>
   </si>
   <si>
-    <t xml:space="preserve">You are sevant of God.</t>
+    <t xml:space="preserve">You are servant of God.</t>
   </si>
   <si>
     <t xml:space="preserve">あなたは神の使いだ。</t>
@@ -7868,11 +7868,13 @@
   </si>
   <si>
     <t xml:space="preserve">Show hidden food traits
-Show hidden food traits,Add a seasoning slot to some recipes</t>
+Show hidden food traits,Add a seasoning slot to some recipes
+Show hidden food traits,Add a seasoning slot to some recipes,Compress the nutrition of dishes</t>
   </si>
   <si>
     <t xml:space="preserve">食べ物の隠された特性が見れるようになる
-食べ物の隠された特性が見れるようになる,一部のレシピに任意調味料枠を追加</t>
+食べ物の隠された特性が見れるようになる,一部のレシピに任意調味料枠を追加
+食べ物の隠された特性が見れるようになる,一部のレシピに任意調味料枠を追加,料理の栄養圧縮</t>
   </si>
   <si>
     <t xml:space="preserve">1651</t>
@@ -36807,7 +36809,7 @@
         <v>2525</v>
       </c>
       <c r="B414" t="s">
-        <v>3927</v>
+        <v>33</v>
       </c>
       <c r="C414" t="s">
         <v>4349</v>

--- a/Mod_Korean/Lang/KR/Game/Element.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Element.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8810" uniqueCount="5434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8809" uniqueCount="5434">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">Void</t>
@@ -12025,7 +12025,7 @@
     <t xml:space="preserve">Beta 22.9</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.23</t>
@@ -25575,7 +25575,7 @@
         <v>1125</v>
       </c>
       <c r="B196" t="s">
-        <v>33</v>
+        <v>3906</v>
       </c>
       <c r="C196" t="s">
         <v>4140</v>

--- a/Mod_Korean/Lang/KR/Game/Element.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Element.xlsx
@@ -116,7 +116,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Void</t>
@@ -6568,7 +6568,7 @@
     <t xml:space="preserve">あなたの足の裏は蹄になっている。</t>
   </si>
   <si>
-    <t xml:space="preserve">Cannnot wear foot gears</t>
+    <t xml:space="preserve">Cannot wear foot gears</t>
   </si>
   <si>
     <t xml:space="preserve">足装備不可</t>
@@ -6669,7 +6669,7 @@
     <t xml:space="preserve">あなたの首はもの凄く太い。</t>
   </si>
   <si>
-    <t xml:space="preserve">Cannnot wear neck gears</t>
+    <t xml:space="preserve">Cannot wear neck gears</t>
   </si>
   <si>
     <t xml:space="preserve">首装備不可</t>

--- a/Mod_Korean/Lang/KR/Game/Element.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Element.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8812" uniqueCount="5435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8811" uniqueCount="5435">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">Void</t>
@@ -6506,7 +6506,7 @@
 あなたはとてつもない重力を生み出している。</t>
   </si>
   <si>
-    <t xml:space="preserve">#1 wieght(s) less.</t>
+    <t xml:space="preserve">#1 weight(s) less.</t>
   </si>
   <si>
     <t xml:space="preserve">#1の周りの重力は軽減した。</t>
@@ -12025,7 +12025,7 @@
     <t xml:space="preserve">Beta 22.9</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.23</t>
@@ -25578,7 +25578,7 @@
         <v>1125</v>
       </c>
       <c r="B196" t="s">
-        <v>33</v>
+        <v>3906</v>
       </c>
       <c r="C196" t="s">
         <v>4140</v>

--- a/Mod_Korean/Lang/KR/Game/Element.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Element.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8831" uniqueCount="5450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8828" uniqueCount="5450">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">Void</t>
@@ -3151,7 +3151,7 @@
     <t xml:space="preserve">467</t>
   </si>
   <si>
-    <t xml:space="preserve">Fsh Bane</t>
+    <t xml:space="preserve">Fish Bane</t>
   </si>
   <si>
     <t xml:space="preserve">魚特攻</t>
@@ -12016,6 +12016,9 @@
     <t xml:space="preserve">Alpha 15.1</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.41</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 19.1</t>
   </si>
   <si>
@@ -12047,9 +12050,6 @@
   </si>
   <si>
     <t xml:space="preserve">Beta 22.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.23</t>
@@ -23267,7 +23267,7 @@
         <v>829</v>
       </c>
       <c r="B142" t="s">
-        <v>33</v>
+        <v>3903</v>
       </c>
       <c r="C142" t="s">
         <v>4098</v>
@@ -23358,7 +23358,7 @@
         <v>841</v>
       </c>
       <c r="B144" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C144" t="s">
         <v>4100</v>
@@ -23400,7 +23400,7 @@
         <v>846</v>
       </c>
       <c r="B145" t="s">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="C145" t="s">
         <v>4101</v>
@@ -23442,7 +23442,7 @@
         <v>851</v>
       </c>
       <c r="B146" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C146" t="s">
         <v>4102</v>
@@ -23484,7 +23484,7 @@
         <v>856</v>
       </c>
       <c r="B147" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C147" t="s">
         <v>4103</v>
@@ -23526,7 +23526,7 @@
         <v>861</v>
       </c>
       <c r="B148" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="C148" t="s">
         <v>4104</v>
@@ -23568,7 +23568,7 @@
         <v>866</v>
       </c>
       <c r="B149" t="s">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="C149" t="s">
         <v>4105</v>
@@ -23610,7 +23610,7 @@
         <v>871</v>
       </c>
       <c r="B150" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="C150" t="s">
         <v>4106</v>
@@ -23652,7 +23652,7 @@
         <v>876</v>
       </c>
       <c r="B151" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C151" t="s">
         <v>4107</v>
@@ -23694,7 +23694,7 @@
         <v>881</v>
       </c>
       <c r="B152" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C152" t="s">
         <v>4108</v>
@@ -24072,7 +24072,7 @@
         <v>926</v>
       </c>
       <c r="B161" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C161" t="s">
         <v>4117</v>
@@ -24604,7 +24604,7 @@
         <v>1008</v>
       </c>
       <c r="B171" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C171" t="s">
         <v>4127</v>
@@ -24646,7 +24646,7 @@
         <v>1013</v>
       </c>
       <c r="B172" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C172" t="s">
         <v>4128</v>
@@ -24688,7 +24688,7 @@
         <v>1018</v>
       </c>
       <c r="B173" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C173" t="s">
         <v>4129</v>
@@ -24730,7 +24730,7 @@
         <v>1023</v>
       </c>
       <c r="B174" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C174" t="s">
         <v>4130</v>
@@ -24772,7 +24772,7 @@
         <v>1028</v>
       </c>
       <c r="B175" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C175" t="s">
         <v>4131</v>
@@ -24814,7 +24814,7 @@
         <v>1033</v>
       </c>
       <c r="B176" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C176" t="s">
         <v>4132</v>
@@ -24856,7 +24856,7 @@
         <v>1038</v>
       </c>
       <c r="B177" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C177" t="s">
         <v>4133</v>
@@ -24898,7 +24898,7 @@
         <v>1043</v>
       </c>
       <c r="B178" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="C178" t="s">
         <v>4134</v>
@@ -24940,7 +24940,7 @@
         <v>1048</v>
       </c>
       <c r="B179" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="C179" t="s">
         <v>4135</v>
@@ -25066,7 +25066,7 @@
         <v>1063</v>
       </c>
       <c r="B182" t="s">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="C182" t="s">
         <v>4138</v>
@@ -25108,7 +25108,7 @@
         <v>1068</v>
       </c>
       <c r="B183" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C183" t="s">
         <v>4139</v>
@@ -25402,7 +25402,7 @@
         <v>1103</v>
       </c>
       <c r="B190" t="s">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="C190" t="s">
         <v>4025</v>
@@ -25444,7 +25444,7 @@
         <v>1108</v>
       </c>
       <c r="B191" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C191" t="s">
         <v>4146</v>
@@ -25486,7 +25486,7 @@
         <v>1113</v>
       </c>
       <c r="B192" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C192" t="s">
         <v>4147</v>
@@ -25521,7 +25521,7 @@
         <v>1116</v>
       </c>
       <c r="B193" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C193" t="s">
         <v>4148</v>
@@ -25556,7 +25556,7 @@
         <v>1119</v>
       </c>
       <c r="B194" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="C194" t="s">
         <v>4149</v>
@@ -25591,7 +25591,7 @@
         <v>1122</v>
       </c>
       <c r="B195" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="C195" t="s">
         <v>4150</v>
@@ -25626,7 +25626,7 @@
         <v>1125</v>
       </c>
       <c r="B196" t="s">
-        <v>33</v>
+        <v>3903</v>
       </c>
       <c r="C196" t="s">
         <v>4151</v>
@@ -25720,7 +25720,7 @@
         <v>1137</v>
       </c>
       <c r="B198" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="C198" t="s">
         <v>4153</v>
@@ -25762,7 +25762,7 @@
         <v>1142</v>
       </c>
       <c r="B199" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="C199" t="s">
         <v>4154</v>
@@ -25804,7 +25804,7 @@
         <v>1147</v>
       </c>
       <c r="B200" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="C200" t="s">
         <v>4155</v>
@@ -25846,7 +25846,7 @@
         <v>1152</v>
       </c>
       <c r="B201" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="C201" t="s">
         <v>4156</v>
@@ -25888,7 +25888,7 @@
         <v>1157</v>
       </c>
       <c r="B202" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="C202" t="s">
         <v>4157</v>
@@ -25930,7 +25930,7 @@
         <v>1162</v>
       </c>
       <c r="B203" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="C203" t="s">
         <v>4158</v>
@@ -25972,7 +25972,7 @@
         <v>1167</v>
       </c>
       <c r="B204" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C204" t="s">
         <v>4159</v>
@@ -26014,7 +26014,7 @@
         <v>1172</v>
       </c>
       <c r="B205" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C205" t="s">
         <v>4160</v>
@@ -26056,7 +26056,7 @@
         <v>1177</v>
       </c>
       <c r="B206" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C206" t="s">
         <v>4161</v>
@@ -26196,7 +26196,7 @@
         <v>1194</v>
       </c>
       <c r="B209" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C209" t="s">
         <v>4164</v>
@@ -26301,7 +26301,7 @@
         <v>1206</v>
       </c>
       <c r="B211" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C211" t="s">
         <v>4166</v>
@@ -27407,7 +27407,7 @@
         <v>1320</v>
       </c>
       <c r="B238" t="s">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="C238" t="s">
         <v>4189</v>
@@ -27456,7 +27456,7 @@
         <v>1327</v>
       </c>
       <c r="B239" t="s">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="C239" t="s">
         <v>4190</v>
@@ -27505,7 +27505,7 @@
         <v>1334</v>
       </c>
       <c r="B240" t="s">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="C240" t="s">
         <v>4191</v>
@@ -27554,7 +27554,7 @@
         <v>1341</v>
       </c>
       <c r="B241" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C241" t="s">
         <v>4192</v>
@@ -27897,7 +27897,7 @@
         <v>1378</v>
       </c>
       <c r="B249" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="C249" t="s">
         <v>4198</v>
@@ -30620,7 +30620,7 @@
         <v>1721</v>
       </c>
       <c r="B305" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="C305" t="s">
         <v>4253</v>
@@ -31327,7 +31327,7 @@
         <v>1801</v>
       </c>
       <c r="B318" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C318" t="s">
         <v>4266</v>
@@ -31439,7 +31439,7 @@
         <v>1811</v>
       </c>
       <c r="B320" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="C320" t="s">
         <v>4268</v>
@@ -31488,7 +31488,7 @@
         <v>1814</v>
       </c>
       <c r="B321" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="C321" t="s">
         <v>4269</v>
@@ -31537,7 +31537,7 @@
         <v>1817</v>
       </c>
       <c r="B322" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="C322" t="s">
         <v>4270</v>
@@ -31649,7 +31649,7 @@
         <v>1827</v>
       </c>
       <c r="B324" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="C324" t="s">
         <v>4272</v>
@@ -36864,7 +36864,7 @@
         <v>2524</v>
       </c>
       <c r="B414" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C414" t="s">
         <v>4361</v>
@@ -37305,7 +37305,7 @@
         <v>2594</v>
       </c>
       <c r="B422" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C422" t="s">
         <v>4369</v>
@@ -38511,7 +38511,7 @@
         <v>2731</v>
       </c>
       <c r="B451" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C451" t="s">
         <v>4395</v>
@@ -39183,7 +39183,7 @@
         <v>2811</v>
       </c>
       <c r="B467" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C467" t="s">
         <v>4411</v>
@@ -44034,7 +44034,7 @@
         <v>3247</v>
       </c>
       <c r="B593" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="C593" t="s">
         <v>4506</v>
@@ -44125,7 +44125,7 @@
         <v>3259</v>
       </c>
       <c r="B595" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C595" t="s">
         <v>4508</v>
@@ -44769,7 +44769,7 @@
         <v>3315</v>
       </c>
       <c r="B613" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C613" t="s">
         <v>4524</v>
@@ -44860,7 +44860,7 @@
         <v>3326</v>
       </c>
       <c r="B615" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C615" t="s">
         <v>4526</v>
@@ -44909,7 +44909,7 @@
         <v>3333</v>
       </c>
       <c r="B616" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C616" t="s">
         <v>4527</v>
@@ -45644,7 +45644,7 @@
         <v>3425</v>
       </c>
       <c r="B632" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C632" t="s">
         <v>4077</v>
@@ -45693,7 +45693,7 @@
         <v>3431</v>
       </c>
       <c r="B633" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C633" t="s">
         <v>4542</v>
@@ -45742,7 +45742,7 @@
         <v>3434</v>
       </c>
       <c r="B634" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C634" t="s">
         <v>4543</v>
@@ -45784,7 +45784,7 @@
         <v>3439</v>
       </c>
       <c r="B635" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C635" t="s">
         <v>4544</v>
@@ -45826,7 +45826,7 @@
         <v>3442</v>
       </c>
       <c r="B636" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C636" t="s">
         <v>4545</v>
@@ -45910,7 +45910,7 @@
         <v>3450</v>
       </c>
       <c r="B638" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C638" t="s">
         <v>4547</v>
@@ -45994,7 +45994,7 @@
         <v>3458</v>
       </c>
       <c r="B640" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C640" t="s">
         <v>4549</v>
@@ -46036,7 +46036,7 @@
         <v>3463</v>
       </c>
       <c r="B641" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C641" t="s">
         <v>4550</v>
@@ -46078,7 +46078,7 @@
         <v>3466</v>
       </c>
       <c r="B642" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C642" t="s">
         <v>4088</v>
@@ -46120,7 +46120,7 @@
         <v>3469</v>
       </c>
       <c r="B643" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C643" t="s">
         <v>4551</v>
@@ -46162,7 +46162,7 @@
         <v>3474</v>
       </c>
       <c r="B644" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C644" t="s">
         <v>4552</v>
@@ -46204,7 +46204,7 @@
         <v>3477</v>
       </c>
       <c r="B645" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C645" t="s">
         <v>4553</v>
@@ -46337,7 +46337,7 @@
         <v>3490</v>
       </c>
       <c r="B648" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C648" t="s">
         <v>4555</v>
@@ -46421,7 +46421,7 @@
         <v>3500</v>
       </c>
       <c r="B650" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C650" t="s">
         <v>4557</v>
@@ -46519,7 +46519,7 @@
         <v>3510</v>
       </c>
       <c r="B652" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C652" t="s">
         <v>4559</v>
@@ -46568,7 +46568,7 @@
         <v>3515</v>
       </c>
       <c r="B653" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C653" t="s">
         <v>4560</v>
@@ -46617,7 +46617,7 @@
         <v>3519</v>
       </c>
       <c r="B654" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C654" t="s">
         <v>4561</v>
@@ -46666,7 +46666,7 @@
         <v>3524</v>
       </c>
       <c r="B655" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C655" t="s">
         <v>4562</v>
@@ -46715,7 +46715,7 @@
         <v>3529</v>
       </c>
       <c r="B656" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C656" t="s">
         <v>4563</v>
@@ -46939,7 +46939,7 @@
         <v>3555</v>
       </c>
       <c r="B661" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C661" t="s">
         <v>4568</v>
@@ -47212,7 +47212,7 @@
         <v>3588</v>
       </c>
       <c r="B667" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C667" t="s">
         <v>4574</v>
@@ -47310,7 +47310,7 @@
         <v>3600</v>
       </c>
       <c r="B669" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C669" t="s">
         <v>4576</v>
@@ -47359,7 +47359,7 @@
         <v>3606</v>
       </c>
       <c r="B670" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C670" t="s">
         <v>4577</v>
@@ -47457,7 +47457,7 @@
         <v>3616</v>
       </c>
       <c r="B672" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C672" t="s">
         <v>4579</v>
@@ -47506,7 +47506,7 @@
         <v>3623</v>
       </c>
       <c r="B673" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C673" t="s">
         <v>4580</v>
@@ -47555,7 +47555,7 @@
         <v>3629</v>
       </c>
       <c r="B674" t="s">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="C674" t="s">
         <v>4581</v>
@@ -47653,7 +47653,7 @@
         <v>3642</v>
       </c>
       <c r="B676" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C676" t="s">
         <v>4583</v>
@@ -47702,7 +47702,7 @@
         <v>3647</v>
       </c>
       <c r="B677" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C677" t="s">
         <v>4584</v>
@@ -47751,7 +47751,7 @@
         <v>3653</v>
       </c>
       <c r="B678" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C678" t="s">
         <v>4107</v>
@@ -47800,7 +47800,7 @@
         <v>3657</v>
       </c>
       <c r="B679" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C679" t="s">
         <v>4108</v>
@@ -47849,7 +47849,7 @@
         <v>3661</v>
       </c>
       <c r="B680" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C680" t="s">
         <v>4585</v>
@@ -48423,7 +48423,7 @@
         <v>3719</v>
       </c>
       <c r="B693" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C693" t="s">
         <v>4598</v>
@@ -54751,7 +54751,7 @@
         <v>3881</v>
       </c>
       <c r="B829" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C829" t="s">
         <v>4533</v>

--- a/Mod_Korean/Lang/KR/Game/Element.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Element.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8828" uniqueCount="5451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8829" uniqueCount="5451">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">Void</t>
@@ -2251,10 +2251,10 @@
     <t xml:space="preserve">怪我を自然に治癒する。</t>
   </si>
   <si>
-    <t xml:space="preserve">It enhances your body metabolism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">それは新陳代謝を速める。</t>
+    <t xml:space="preserve">It accelerates regeneration of body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">それは再生能力を高める。</t>
   </si>
   <si>
     <t xml:space="preserve">301</t>
@@ -22563,7 +22563,7 @@
         <v>739</v>
       </c>
       <c r="B126" t="s">
-        <v>3890</v>
+        <v>33</v>
       </c>
       <c r="C126" t="s">
         <v>4083</v>
